--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,61 +43,61 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -106,6 +106,9 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -115,54 +118,54 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>support</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -178,37 +181,52 @@
     <t>gt</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>data</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -566,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -685,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>0.95</v>
@@ -735,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,16 +774,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,16 +824,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L6">
         <v>34</v>
       </c>
-      <c r="K6">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="L6">
-        <v>31</v>
-      </c>
       <c r="M6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -835,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8595890410958904</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8055555555555556</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.9138381201044387</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,31 +971,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>0.9033942558746736</v>
+      </c>
+      <c r="L9">
+        <v>346</v>
+      </c>
+      <c r="M9">
+        <v>346</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>37</v>
-      </c>
-      <c r="K9">
-        <v>0.9069767441860465</v>
-      </c>
-      <c r="L9">
-        <v>39</v>
-      </c>
-      <c r="M9">
-        <v>39</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6862745098039216</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6772486772486772</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.8875</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6744186046511628</v>
+        <v>0.6821705426356589</v>
       </c>
       <c r="C12">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D12">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6610169491525424</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6410256410256411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.8802816901408451</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5906040268456376</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C15">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D15">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L15">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5818181818181818</v>
+        <v>0.6040268456375839</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.8679245283018868</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5694444444444444</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C17">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D17">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.8620689655172413</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>0.8414634146341463</v>
@@ -1435,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4909090909090909</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.8253968253968254</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3666666666666666</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7948717948717948</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3466666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1553,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7916666666666666</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3375</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1603,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7352941176470589</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L22">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M22">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1627,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,13 +1653,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2936507936507937</v>
+        <v>0.2896825396825397</v>
       </c>
       <c r="C23">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1653,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1677,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,13 +1703,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1715817694369973</v>
+        <v>0.1849865951742627</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1703,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.7152542372881356</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L24">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M24">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1727,21 +1745,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.01323007421748951</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>49</v>
+      </c>
+      <c r="E25">
+        <v>0.16</v>
+      </c>
+      <c r="F25">
+        <v>0.84</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3058</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1753,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.698744769874477</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1779,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.6629213483146067</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L27">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1805,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.6615384615384615</v>
+        <v>0.694560669456067</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1831,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.6595744680851063</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1857,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1883,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.6444444444444445</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1909,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.6274509803921569</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1935,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.547945205479452</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1961,21 +2003,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.5087719298245614</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1987,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4262295081967213</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2013,15 +2055,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.3974358974358974</v>
+        <v>0.484375</v>
       </c>
       <c r="L36">
         <v>31</v>
@@ -2039,7 +2081,137 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39">
+        <v>0.0350584307178631</v>
+      </c>
+      <c r="L39">
+        <v>42</v>
+      </c>
+      <c r="M39">
+        <v>44</v>
+      </c>
+      <c r="N39">
+        <v>0.95</v>
+      </c>
+      <c r="O39">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40">
+        <v>0.01161483701760959</v>
+      </c>
+      <c r="L40">
+        <v>31</v>
+      </c>
+      <c r="M40">
+        <v>35</v>
+      </c>
+      <c r="N40">
+        <v>0.89</v>
+      </c>
+      <c r="O40">
+        <v>0.11</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>0.009076682316118936</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>35</v>
+      </c>
+      <c r="N41">
+        <v>0.83</v>
+      </c>
+      <c r="O41">
+        <v>0.17</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
